--- a/mbs-perturbation/bloated/decisionTree/bloated-decisionTree-results.xlsx
+++ b/mbs-perturbation/bloated/decisionTree/bloated-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08391608391608392</v>
+        <v>0.12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6651583710407241</v>
+        <v>0.7810945273631841</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4366515837104072</v>
+        <v>0.5721393034825871</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.375</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6520979020979021</v>
+        <v>0.7060416666666667</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6167832167832168</v>
+        <v>0.4512727272727273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2628205128205128</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1651098901098901</v>
+        <v>0.170458952811894</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5668072123954476</v>
+        <v>0.6300369176843057</v>
       </c>
     </row>
   </sheetData>
